--- a/dino.xlsx
+++ b/dino.xlsx
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -595,110 +595,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF48EA48"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5B8EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -752,538 +657,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5B8EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5B8EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5B8EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5B8EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5B8EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5B8EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5B8EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD5B8EA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1971,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:AY111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H110" sqref="H62:O110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -3013,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -3033,7 +2406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -3053,56 +2426,1307 @@
         <v>4</v>
       </c>
     </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B61" s="25" t="str">
+        <f>A2&amp;", """&amp;B2&amp;""", "&amp;C2&amp;", """&amp;D2&amp;""", """&amp;E2&amp;""", "&amp;F2</f>
+        <v>1, "Омейзавр", 9800, "вег", "юрський", 8</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25" t="str">
+        <f>A61&amp;"("&amp;B61&amp;"),"</f>
+        <v>(1, "Омейзавр", 9800, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+      <c r="AF61" s="25"/>
+      <c r="AG61" s="25"/>
+      <c r="AH61" s="25"/>
+      <c r="AI61" s="25"/>
+      <c r="AJ61" s="25"/>
+      <c r="AK61" s="25"/>
+      <c r="AL61" s="25"/>
+      <c r="AM61" s="25"/>
+      <c r="AN61" s="25"/>
+      <c r="AO61" s="25"/>
+      <c r="AP61" s="25"/>
+      <c r="AQ61" s="25"/>
+      <c r="AR61" s="25"/>
+      <c r="AS61" s="25"/>
+      <c r="AT61" s="25"/>
+      <c r="AU61" s="25"/>
+      <c r="AV61" s="25"/>
+      <c r="AW61" s="25"/>
+      <c r="AX61" s="25"/>
+      <c r="AY61" s="25"/>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B62" s="25" t="str">
+        <f t="shared" ref="B62:B110" si="0">A3&amp;", """&amp;B3&amp;""", "&amp;C3&amp;", """&amp;D3&amp;""", """&amp;E3&amp;""", "&amp;F3</f>
+        <v>2, "Брахіозавр", 40000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25" t="str">
+        <f t="shared" ref="H62:H110" si="1">A62&amp;"("&amp;B62&amp;"),"</f>
+        <v>(2, "Брахіозавр", 40000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B63" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>3, "Камаразавр", 20000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, "Камаразавр", 20000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B64" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>4, "Апатозавр", 40000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(4, "Апатозавр", 40000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>5, "Барозавр", 30000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(5, "Барозавр", 30000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>6, "Дикреозавр", 5000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, "Дикреозавр", 5000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>7, "Диплодок", 13000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, "Диплодок", 13000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>8, "Маменчизавр", 27000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, "Маменчизавр", 27000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>9, "Сейсмозавр", 140000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(9, "Сейсмозавр", 140000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10, "Суперзавр", 37000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, "Суперзавр", 37000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>11, "Ультразавр", 130000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, "Ультразавр", 130000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>12, "Антарктозавр", 45000, "вег", "крейдовий", 8</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(12, "Антарктозавр", 45000, "вег", "крейдовий", 8),</v>
+      </c>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>13, "Аргентинозавр", 80000, "вег", "крейдовий", 8</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(13, "Аргентинозавр", 80000, "вег", "крейдовий", 8),</v>
+      </c>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>14, "Титанозавр", 10000, "вег", "крейдовий", 8</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(14, "Титанозавр", 10000, "вег", "крейдовий", 8),</v>
+      </c>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>15, "Гіпсилофодон", 40, "вег", "крейдовий", 2</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(15, "Гіпсилофодон", 40, "вег", "крейдовий", 2),</v>
+      </c>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>16, "Лесотозавр", 5, "вег", "юрський", 2</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(16, "Лесотозавр", 5, "вег", "юрський", 2),</v>
+      </c>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>17, "Ігуанодон", 4500, "вег", "крейдовий", 6</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(17, "Ігуанодон", 4500, "вег", "крейдовий", 6),</v>
+      </c>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>18, "Камптозавр", 750, "вег", "юрський", 2</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(18, "Камптозавр", 750, "вег", "юрський", 2),</v>
+      </c>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>19, "Муттабурразавр", 2800, "вег", "крейдовий", 6</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(19, "Муттабурразавр", 2800, "вег", "крейдовий", 6),</v>
+      </c>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>20, "Уранозавр", 3000, "вег", "крейдовий", 6</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(20, "Уранозавр", 3000, "вег", "крейдовий", 6),</v>
+      </c>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>21, "Бактрозавр", 1100, "вег", "крейдовий", 2</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(21, "Бактрозавр", 1100, "вег", "крейдовий", 2),</v>
+      </c>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>22, "Едмонтозавр", 3200, "все", "крейдовий", 6</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(22, "Едмонтозавр", 3200, "все", "крейдовий", 6),</v>
+      </c>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>23, "Коритозавр", 4000, "все", "крейдовий", 5</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(23, "Коритозавр", 4000, "все", "крейдовий", 5),</v>
+      </c>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>24, "Критозавр", 2500, "вег", "крейдовий", 5</v>
+      </c>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(24, "Критозавр", 2500, "вег", "крейдовий", 5),</v>
+      </c>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>25, "Ламбеозавр", 4500, "все", "крейдовий", 5</v>
+      </c>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(25, "Ламбеозавр", 4500, "все", "крейдовий", 5),</v>
+      </c>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>26, "Паразауролоф", 4500, "все", "крейдовий", 5</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(26, "Паразауролоф", 4500, "все", "крейдовий", 5),</v>
+      </c>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>27, "Завролоф", 2700, "все", "крейдовий", 5</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(27, "Завролоф", 2700, "все", "крейдовий", 5),</v>
+      </c>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>28, "Гіпакрозавр", 4000, "вег", "крейдовий", 5</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(28, "Гіпакрозавр", 4000, "вег", "крейдовий", 5),</v>
+      </c>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>29, "Компсогнатус", 3, "все", "юрський", 2</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(29, "Компсогнатус", 3, "все", "юрський", 2),</v>
+      </c>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>30, "Сальтопус", 1, "м'ясо", "тріасовий", 2</v>
+      </c>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(30, "Сальтопус", 1, "м'ясо", "тріасовий", 2),</v>
+      </c>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>31, "Целофізис", 20, "м'ясо", "тріасовий", 2</v>
+      </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(31, "Целофізис", 20, "м'ясо", "тріасовий", 2),</v>
+      </c>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>32, "Цератозавр", 500, "м'ясо", "юрський", 1</v>
+      </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(32, "Цератозавр", 500, "м'ясо", "юрський", 1),</v>
+      </c>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>33, "Авімім", 15, "все", "крейдовий", 2</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(33, "Авімім", 15, "все", "крейдовий", 2),</v>
+      </c>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>34, "Дейнохейрус", 7000, "все", "крейдовий", 2</v>
+      </c>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(34, "Дейнохейрус", 7000, "все", "крейдовий", 2),</v>
+      </c>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>35, "Велоцираптор", 20, "м'ясо", "крейдовий", 2</v>
+      </c>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(35, "Велоцираптор", 20, "м'ясо", "крейдовий", 2),</v>
+      </c>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>36, "Гігантораптор", 1400, "все", "крейдовий", 2</v>
+      </c>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(36, "Гігантораптор", 1400, "все", "крейдовий", 2),</v>
+      </c>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>37, "Дейноних", 80, "м'ясо", "крейдовий", 2</v>
+      </c>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(37, "Дейноних", 80, "м'ясо", "крейдовий", 2),</v>
+      </c>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>38, "Дромеозавр", 15, "м'ясо", "крейдовий", 2</v>
+      </c>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(38, "Дромеозавр", 15, "м'ясо", "крейдовий", 2),</v>
+      </c>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>39, "Мікрораптор", 1, "все", "крейдовий", 3</v>
+      </c>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(39, "Мікрораптор", 1, "все", "крейдовий", 3),</v>
+      </c>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>40, "Овіраптор", 30, "все", "крейдовий", 2</v>
+      </c>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(40, "Овіраптор", 30, "все", "крейдовий", 2),</v>
+      </c>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>41, "Троодон", 50, "м'ясо", "крейдовий", 2</v>
+      </c>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(41, "Троодон", 50, "м'ясо", "крейдовий", 2),</v>
+      </c>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>42, "Дилофозавр", 400, "м'ясо", "юрський", 5</v>
+      </c>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(42, "Дилофозавр", 400, "м'ясо", "юрський", 5),</v>
+      </c>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>43, "Мегалозавр", 1000, "м'ясо", "юрський", 1</v>
+      </c>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(43, "Мегалозавр", 1000, "м'ясо", "юрський", 1),</v>
+      </c>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>44, "Ерлікозавр", 300, "все", "крейдовий", 8</v>
+      </c>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(44, "Ерлікозавр", 300, "все", "крейдовий", 8),</v>
+      </c>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>45, "Наншіунгозавр", 600, "все", "крейдовий", 6</v>
+      </c>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(45, "Наншіунгозавр", 600, "все", "крейдовий", 6),</v>
+      </c>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>46, "Тиранозавр", 12000, "м'ясо", "крейдовий", 1</v>
+      </c>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(46, "Тиранозавр", 12000, "м'ясо", "крейдовий", 1),</v>
+      </c>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>47, "Дасплетозавр", 2500, "м'ясо", "крейдовий", 1</v>
+      </c>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(47, "Дасплетозавр", 2500, "м'ясо", "крейдовий", 1),</v>
+      </c>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="25"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>48, "Анхіцератопс", 1200, "вег", "крейдовий", 4</v>
+      </c>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(48, "Анхіцератопс", 1200, "вег", "крейдовий", 4),</v>
+      </c>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>49, "Протоцератопси", 180, "вег", "крейдовий", 4</v>
+      </c>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(49, "Протоцератопси", 180, "вег", "крейдовий", 4),</v>
+      </c>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>50, "Стиракозавр", 2700, "вег", "крейдовий", 4</v>
+      </c>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>(50, "Стиракозавр", 2700, "вег", "крейдовий", 4),</v>
+      </c>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="25" t="str">
+        <f t="shared" ref="B62:B111" si="2">""""&amp;B52&amp;""", "&amp;C52&amp;", """&amp;D52&amp;""", """&amp;E52&amp;""", "&amp;F52</f>
+        <v xml:space="preserve">"", , "", "", </v>
+      </c>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+    </row>
   </sheetData>
+  <mergeCells count="102">
+    <mergeCell ref="H110:O110"/>
+    <mergeCell ref="P61:AY61"/>
+    <mergeCell ref="H104:O104"/>
+    <mergeCell ref="H105:O105"/>
+    <mergeCell ref="H106:O106"/>
+    <mergeCell ref="H107:O107"/>
+    <mergeCell ref="H108:O108"/>
+    <mergeCell ref="H109:O109"/>
+    <mergeCell ref="H98:O98"/>
+    <mergeCell ref="H99:O99"/>
+    <mergeCell ref="H100:O100"/>
+    <mergeCell ref="H101:O101"/>
+    <mergeCell ref="H102:O102"/>
+    <mergeCell ref="H103:O103"/>
+    <mergeCell ref="H92:O92"/>
+    <mergeCell ref="H93:O93"/>
+    <mergeCell ref="H94:O94"/>
+    <mergeCell ref="H95:O95"/>
+    <mergeCell ref="H96:O96"/>
+    <mergeCell ref="H97:O97"/>
+    <mergeCell ref="H86:O86"/>
+    <mergeCell ref="H87:O87"/>
+    <mergeCell ref="H88:O88"/>
+    <mergeCell ref="H89:O89"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="H91:O91"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="H82:O82"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="H84:O84"/>
+    <mergeCell ref="H85:O85"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="H71:O71"/>
+    <mergeCell ref="H72:O72"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="H62:O62"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:O64"/>
+    <mergeCell ref="H65:O65"/>
+    <mergeCell ref="H66:O66"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+  </mergeCells>
   <conditionalFormatting sqref="D2:D51">
-    <cfRule type="containsText" dxfId="27" priority="14" operator="containsText" text="вег">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="вег">
       <formula>NOT(ISERROR(SEARCH("вег",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="м'ясо">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="м'ясо">
       <formula>NOT(ISERROR(SEARCH("м'ясо",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="все">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="все">
       <formula>NOT(ISERROR(SEARCH("все",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E51">
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="юрський">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="юрський">
       <formula>NOT(ISERROR(SEARCH("юрський",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E51">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="крейдовий">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="крейдовий">
       <formula>NOT(ISERROR(SEARCH("крейдовий",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="тріасовий">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="тріасовий">
       <formula>NOT(ISERROR(SEARCH("тріасовий",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F51">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dino.xlsx
+++ b/dino.xlsx
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,9 +576,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,6 +594,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1346,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H110" sqref="H62:O110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,16 +1372,16 @@
       <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
@@ -1389,7 +1392,7 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1">
@@ -1398,7 +1401,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
@@ -1409,7 +1412,7 @@
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1">
@@ -1418,7 +1421,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>7</v>
@@ -1429,22 +1432,22 @@
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>1</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>4</v>
+      <c r="A5" s="16">
+        <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>8</v>
@@ -1455,18 +1458,18 @@
       <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>9</v>
@@ -1477,18 +1480,18 @@
       <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1">
         <v>8</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="H6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
@@ -1499,18 +1502,18 @@
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1">
         <v>8</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>7</v>
+      <c r="A8" s="16">
+        <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>12</v>
@@ -1521,18 +1524,18 @@
       <c r="D8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -1543,20 +1546,20 @@
       <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="H9" s="19">
-        <v>2</v>
-      </c>
-      <c r="M9" s="19"/>
+      <c r="H9" s="18">
+        <v>2</v>
+      </c>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
@@ -1567,20 +1570,20 @@
       <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="M10" s="19">
+      <c r="H10" s="18"/>
+      <c r="M10" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>10</v>
+      <c r="A11" s="16">
+        <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>15</v>
@@ -1591,18 +1594,18 @@
       <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>16</v>
@@ -1613,18 +1616,18 @@
       <c r="D12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="1">
         <v>8</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -1635,18 +1638,18 @@
       <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="1">
         <v>8</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>13</v>
+      <c r="A14" s="16">
+        <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1657,18 +1660,18 @@
       <c r="D14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="1">
         <v>8</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>20</v>
@@ -1679,18 +1682,18 @@
       <c r="D15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="1">
         <v>8</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>21</v>
@@ -1701,22 +1704,22 @@
       <c r="D16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>3</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>16</v>
+      <c r="A17" s="16">
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -1727,18 +1730,18 @@
       <c r="D17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -1749,18 +1752,18 @@
       <c r="D18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="1">
         <v>6</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>24</v>
@@ -1771,18 +1774,18 @@
       <c r="D19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>19</v>
+      <c r="A20" s="16">
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
@@ -1793,22 +1796,22 @@
       <c r="D20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>4</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
@@ -1819,7 +1822,7 @@
       <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="1">
@@ -1828,7 +1831,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>27</v>
@@ -1839,7 +1842,7 @@
       <c r="D22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="1">
@@ -1847,8 +1850,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>22</v>
+      <c r="A23" s="16">
+        <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>28</v>
@@ -1859,7 +1862,7 @@
       <c r="D23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="1">
@@ -1868,7 +1871,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>30</v>
@@ -1879,7 +1882,7 @@
       <c r="D24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="1">
@@ -1888,7 +1891,7 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>31</v>
@@ -1899,7 +1902,7 @@
       <c r="D25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="1">
@@ -1907,8 +1910,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>25</v>
+      <c r="A26" s="16">
+        <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>32</v>
@@ -1919,7 +1922,7 @@
       <c r="D26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="1">
@@ -1928,7 +1931,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>33</v>
@@ -1939,7 +1942,7 @@
       <c r="D27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="1">
@@ -1948,7 +1951,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>34</v>
@@ -1959,7 +1962,7 @@
       <c r="D28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="1">
@@ -1967,8 +1970,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>28</v>
+      <c r="A29" s="16">
+        <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>35</v>
@@ -1979,7 +1982,7 @@
       <c r="D29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="1">
@@ -1988,7 +1991,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>37</v>
@@ -1999,7 +2002,7 @@
       <c r="D30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="1">
@@ -2008,7 +2011,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>38</v>
@@ -2019,7 +2022,7 @@
       <c r="D31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="1">
@@ -2027,8 +2030,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>31</v>
+      <c r="A32" s="16">
+        <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>40</v>
@@ -2039,7 +2042,7 @@
       <c r="D32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="1">
@@ -2048,7 +2051,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>41</v>
@@ -2059,7 +2062,7 @@
       <c r="D33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="1">
@@ -2068,7 +2071,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>42</v>
@@ -2079,7 +2082,7 @@
       <c r="D34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="1">
@@ -2087,8 +2090,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>34</v>
+      <c r="A35" s="16">
+        <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>43</v>
@@ -2099,7 +2102,7 @@
       <c r="D35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="1">
@@ -2108,7 +2111,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>44</v>
@@ -2119,7 +2122,7 @@
       <c r="D36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="1">
@@ -2128,7 +2131,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>45</v>
@@ -2139,7 +2142,7 @@
       <c r="D37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="1">
@@ -2147,8 +2150,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>37</v>
+      <c r="A38" s="16">
+        <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>46</v>
@@ -2159,7 +2162,7 @@
       <c r="D38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="1">
@@ -2168,7 +2171,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>47</v>
@@ -2179,7 +2182,7 @@
       <c r="D39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="1">
@@ -2188,7 +2191,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>48</v>
@@ -2199,7 +2202,7 @@
       <c r="D40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="1">
@@ -2207,8 +2210,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <v>40</v>
+      <c r="A41" s="16">
+        <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>49</v>
@@ -2219,7 +2222,7 @@
       <c r="D41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="1">
@@ -2228,7 +2231,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>50</v>
@@ -2239,7 +2242,7 @@
       <c r="D42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="1">
@@ -2248,7 +2251,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>51</v>
@@ -2259,7 +2262,7 @@
       <c r="D43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="1">
@@ -2267,8 +2270,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <v>43</v>
+      <c r="A44" s="16">
+        <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>52</v>
@@ -2279,7 +2282,7 @@
       <c r="D44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="1">
@@ -2288,7 +2291,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>53</v>
@@ -2299,7 +2302,7 @@
       <c r="D45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F45" s="1">
@@ -2308,7 +2311,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>54</v>
@@ -2319,7 +2322,7 @@
       <c r="D46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F46" s="1">
@@ -2327,8 +2330,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
-        <v>46</v>
+      <c r="A47" s="16">
+        <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>55</v>
@@ -2339,7 +2342,7 @@
       <c r="D47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="1">
@@ -2348,7 +2351,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>56</v>
@@ -2359,7 +2362,7 @@
       <c r="D48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="1">
@@ -2368,7 +2371,7 @@
     </row>
     <row r="49" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>57</v>
@@ -2379,7 +2382,7 @@
       <c r="D49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="1">
@@ -2387,8 +2390,8 @@
       </c>
     </row>
     <row r="50" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
-        <v>49</v>
+      <c r="A50" s="16">
+        <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>58</v>
@@ -2399,7 +2402,7 @@
       <c r="D50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="1">
@@ -2407,8 +2410,8 @@
       </c>
     </row>
     <row r="51" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18">
-        <v>50</v>
+      <c r="A51" s="17">
+        <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>59</v>
@@ -2419,1162 +2422,1246 @@
       <c r="D51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="2">
         <v>4</v>
       </c>
     </row>
+    <row r="52" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+    </row>
+    <row r="53" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+    </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B61" s="25" t="str">
+      <c r="B61" s="24" t="str">
         <f>A2&amp;", """&amp;B2&amp;""", "&amp;C2&amp;", """&amp;D2&amp;""", """&amp;E2&amp;""", "&amp;F2</f>
-        <v>1, "Омейзавр", 9800, "вег", "юрський", 8</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25" t="str">
+        <v>0, "Омейзавр", 9800, "вег", "юрський", 8</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24" t="str">
         <f>A61&amp;"("&amp;B61&amp;"),"</f>
-        <v>(1, "Омейзавр", 9800, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="25"/>
-      <c r="V61" s="25"/>
-      <c r="W61" s="25"/>
-      <c r="X61" s="25"/>
-      <c r="Y61" s="25"/>
-      <c r="Z61" s="25"/>
-      <c r="AA61" s="25"/>
-      <c r="AB61" s="25"/>
-      <c r="AC61" s="25"/>
-      <c r="AD61" s="25"/>
-      <c r="AE61" s="25"/>
-      <c r="AF61" s="25"/>
-      <c r="AG61" s="25"/>
-      <c r="AH61" s="25"/>
-      <c r="AI61" s="25"/>
-      <c r="AJ61" s="25"/>
-      <c r="AK61" s="25"/>
-      <c r="AL61" s="25"/>
-      <c r="AM61" s="25"/>
-      <c r="AN61" s="25"/>
-      <c r="AO61" s="25"/>
-      <c r="AP61" s="25"/>
-      <c r="AQ61" s="25"/>
-      <c r="AR61" s="25"/>
-      <c r="AS61" s="25"/>
-      <c r="AT61" s="25"/>
-      <c r="AU61" s="25"/>
-      <c r="AV61" s="25"/>
-      <c r="AW61" s="25"/>
-      <c r="AX61" s="25"/>
-      <c r="AY61" s="25"/>
+        <v>(0, "Омейзавр", 9800, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24"/>
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="24"/>
+      <c r="AH61" s="24"/>
+      <c r="AI61" s="24"/>
+      <c r="AJ61" s="24"/>
+      <c r="AK61" s="24"/>
+      <c r="AL61" s="24"/>
+      <c r="AM61" s="24"/>
+      <c r="AN61" s="24"/>
+      <c r="AO61" s="24"/>
+      <c r="AP61" s="24"/>
+      <c r="AQ61" s="24"/>
+      <c r="AR61" s="24"/>
+      <c r="AS61" s="24"/>
+      <c r="AT61" s="24"/>
+      <c r="AU61" s="24"/>
+      <c r="AV61" s="24"/>
+      <c r="AW61" s="24"/>
+      <c r="AX61" s="24"/>
+      <c r="AY61" s="24"/>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B62" s="25" t="str">
+      <c r="B62" s="24" t="str">
         <f t="shared" ref="B62:B110" si="0">A3&amp;", """&amp;B3&amp;""", "&amp;C3&amp;", """&amp;D3&amp;""", """&amp;E3&amp;""", "&amp;F3</f>
-        <v>2, "Брахіозавр", 40000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25" t="str">
+        <v>1, "Брахіозавр", 40000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24" t="str">
         <f t="shared" ref="H62:H110" si="1">A62&amp;"("&amp;B62&amp;"),"</f>
-        <v>(2, "Брахіозавр", 40000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
+        <v>(1, "Брахіозавр", 40000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B63" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>3, "Камаразавр", 20000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(3, "Камаразавр", 20000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
+      <c r="B63" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2, "Камаразавр", 20000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(2, "Камаразавр", 20000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B64" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>4, "Апатозавр", 40000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(4, "Апатозавр", 40000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
+      <c r="B64" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>3, "Апатозавр", 40000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, "Апатозавр", 40000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>5, "Барозавр", 30000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(5, "Барозавр", 30000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
+      <c r="B65" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>4, "Барозавр", 30000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(4, "Барозавр", 30000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>6, "Дикреозавр", 5000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, "Дикреозавр", 5000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
+      <c r="B66" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>5, "Дикреозавр", 5000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(5, "Дикреозавр", 5000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>7, "Диплодок", 13000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, "Диплодок", 13000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
+      <c r="B67" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>6, "Диплодок", 13000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(6, "Диплодок", 13000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>8, "Маменчизавр", 27000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(8, "Маменчизавр", 27000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
+      <c r="B68" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>7, "Маменчизавр", 27000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(7, "Маменчизавр", 27000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>9, "Сейсмозавр", 140000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(9, "Сейсмозавр", 140000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
+      <c r="B69" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>8, "Сейсмозавр", 140000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(8, "Сейсмозавр", 140000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>10, "Суперзавр", 37000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(10, "Суперзавр", 37000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
+      <c r="B70" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>9, "Суперзавр", 37000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(9, "Суперзавр", 37000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>11, "Ультразавр", 130000, "вег", "юрський", 8</v>
-      </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(11, "Ультразавр", 130000, "вег", "юрський", 8),</v>
-      </c>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
+      <c r="B71" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10, "Ультразавр", 130000, "вег", "юрський", 8</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(10, "Ультразавр", 130000, "вег", "юрський", 8),</v>
+      </c>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>12, "Антарктозавр", 45000, "вег", "крейдовий", 8</v>
-      </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(12, "Антарктозавр", 45000, "вег", "крейдовий", 8),</v>
-      </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
+      <c r="B72" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>11, "Антарктозавр", 45000, "вег", "крейдовий", 8</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(11, "Антарктозавр", 45000, "вег", "крейдовий", 8),</v>
+      </c>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>13, "Аргентинозавр", 80000, "вег", "крейдовий", 8</v>
-      </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(13, "Аргентинозавр", 80000, "вег", "крейдовий", 8),</v>
-      </c>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
+      <c r="B73" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>12, "Аргентинозавр", 80000, "вег", "крейдовий", 8</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(12, "Аргентинозавр", 80000, "вег", "крейдовий", 8),</v>
+      </c>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>14, "Титанозавр", 10000, "вег", "крейдовий", 8</v>
-      </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(14, "Титанозавр", 10000, "вег", "крейдовий", 8),</v>
-      </c>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
+      <c r="B74" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>13, "Титанозавр", 10000, "вег", "крейдовий", 8</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(13, "Титанозавр", 10000, "вег", "крейдовий", 8),</v>
+      </c>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>15, "Гіпсилофодон", 40, "вег", "крейдовий", 2</v>
-      </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(15, "Гіпсилофодон", 40, "вег", "крейдовий", 2),</v>
-      </c>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
+      <c r="B75" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>14, "Гіпсилофодон", 40, "вег", "крейдовий", 2</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(14, "Гіпсилофодон", 40, "вег", "крейдовий", 2),</v>
+      </c>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>16, "Лесотозавр", 5, "вег", "юрський", 2</v>
-      </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(16, "Лесотозавр", 5, "вег", "юрський", 2),</v>
-      </c>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
+      <c r="B76" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>15, "Лесотозавр", 5, "вег", "юрський", 2</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(15, "Лесотозавр", 5, "вег", "юрський", 2),</v>
+      </c>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>17, "Ігуанодон", 4500, "вег", "крейдовий", 6</v>
-      </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(17, "Ігуанодон", 4500, "вег", "крейдовий", 6),</v>
-      </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
+      <c r="B77" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>16, "Ігуанодон", 4500, "вег", "крейдовий", 6</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(16, "Ігуанодон", 4500, "вег", "крейдовий", 6),</v>
+      </c>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>18, "Камптозавр", 750, "вег", "юрський", 2</v>
-      </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(18, "Камптозавр", 750, "вег", "юрський", 2),</v>
-      </c>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
+      <c r="B78" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>17, "Камптозавр", 750, "вег", "юрський", 2</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(17, "Камптозавр", 750, "вег", "юрський", 2),</v>
+      </c>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>19, "Муттабурразавр", 2800, "вег", "крейдовий", 6</v>
-      </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(19, "Муттабурразавр", 2800, "вег", "крейдовий", 6),</v>
-      </c>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
+      <c r="B79" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>18, "Муттабурразавр", 2800, "вег", "крейдовий", 6</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(18, "Муттабурразавр", 2800, "вег", "крейдовий", 6),</v>
+      </c>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>20, "Уранозавр", 3000, "вег", "крейдовий", 6</v>
-      </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(20, "Уранозавр", 3000, "вег", "крейдовий", 6),</v>
-      </c>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
+      <c r="B80" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>19, "Уранозавр", 3000, "вег", "крейдовий", 6</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(19, "Уранозавр", 3000, "вег", "крейдовий", 6),</v>
+      </c>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>21, "Бактрозавр", 1100, "вег", "крейдовий", 2</v>
-      </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(21, "Бактрозавр", 1100, "вег", "крейдовий", 2),</v>
-      </c>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
+      <c r="B81" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>20, "Бактрозавр", 1100, "вег", "крейдовий", 2</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(20, "Бактрозавр", 1100, "вег", "крейдовий", 2),</v>
+      </c>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>22, "Едмонтозавр", 3200, "все", "крейдовий", 6</v>
-      </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(22, "Едмонтозавр", 3200, "все", "крейдовий", 6),</v>
-      </c>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
+      <c r="B82" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>21, "Едмонтозавр", 3200, "все", "крейдовий", 6</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(21, "Едмонтозавр", 3200, "все", "крейдовий", 6),</v>
+      </c>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>23, "Коритозавр", 4000, "все", "крейдовий", 5</v>
-      </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(23, "Коритозавр", 4000, "все", "крейдовий", 5),</v>
-      </c>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
+      <c r="B83" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>22, "Коритозавр", 4000, "все", "крейдовий", 5</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(22, "Коритозавр", 4000, "все", "крейдовий", 5),</v>
+      </c>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>24, "Критозавр", 2500, "вег", "крейдовий", 5</v>
-      </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(24, "Критозавр", 2500, "вег", "крейдовий", 5),</v>
-      </c>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
+      <c r="B84" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>23, "Критозавр", 2500, "вег", "крейдовий", 5</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(23, "Критозавр", 2500, "вег", "крейдовий", 5),</v>
+      </c>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>25, "Ламбеозавр", 4500, "все", "крейдовий", 5</v>
-      </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(25, "Ламбеозавр", 4500, "все", "крейдовий", 5),</v>
-      </c>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
+      <c r="B85" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>24, "Ламбеозавр", 4500, "все", "крейдовий", 5</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(24, "Ламбеозавр", 4500, "все", "крейдовий", 5),</v>
+      </c>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>26, "Паразауролоф", 4500, "все", "крейдовий", 5</v>
-      </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(26, "Паразауролоф", 4500, "все", "крейдовий", 5),</v>
-      </c>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="25"/>
+      <c r="B86" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>25, "Паразауролоф", 4500, "все", "крейдовий", 5</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(25, "Паразауролоф", 4500, "все", "крейдовий", 5),</v>
+      </c>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B87" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>27, "Завролоф", 2700, "все", "крейдовий", 5</v>
-      </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(27, "Завролоф", 2700, "все", "крейдовий", 5),</v>
-      </c>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
+      <c r="B87" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>26, "Завролоф", 2700, "все", "крейдовий", 5</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(26, "Завролоф", 2700, "все", "крейдовий", 5),</v>
+      </c>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>28, "Гіпакрозавр", 4000, "вег", "крейдовий", 5</v>
-      </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(28, "Гіпакрозавр", 4000, "вег", "крейдовий", 5),</v>
-      </c>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
+      <c r="B88" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>27, "Гіпакрозавр", 4000, "вег", "крейдовий", 5</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(27, "Гіпакрозавр", 4000, "вег", "крейдовий", 5),</v>
+      </c>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>29, "Компсогнатус", 3, "все", "юрський", 2</v>
-      </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(29, "Компсогнатус", 3, "все", "юрський", 2),</v>
-      </c>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="25"/>
+      <c r="B89" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>28, "Компсогнатус", 3, "все", "юрський", 2</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(28, "Компсогнатус", 3, "все", "юрський", 2),</v>
+      </c>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>30, "Сальтопус", 1, "м'ясо", "тріасовий", 2</v>
-      </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(30, "Сальтопус", 1, "м'ясо", "тріасовий", 2),</v>
-      </c>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25"/>
+      <c r="B90" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>29, "Сальтопус", 1, "м'ясо", "тріасовий", 2</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(29, "Сальтопус", 1, "м'ясо", "тріасовий", 2),</v>
+      </c>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>31, "Целофізис", 20, "м'ясо", "тріасовий", 2</v>
-      </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(31, "Целофізис", 20, "м'ясо", "тріасовий", 2),</v>
-      </c>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
+      <c r="B91" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>30, "Целофізис", 20, "м'ясо", "тріасовий", 2</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(30, "Целофізис", 20, "м'ясо", "тріасовий", 2),</v>
+      </c>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B92" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>32, "Цератозавр", 500, "м'ясо", "юрський", 1</v>
-      </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(32, "Цератозавр", 500, "м'ясо", "юрський", 1),</v>
-      </c>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
+      <c r="B92" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>31, "Цератозавр", 500, "м'ясо", "юрський", 1</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(31, "Цератозавр", 500, "м'ясо", "юрський", 1),</v>
+      </c>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B93" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>33, "Авімім", 15, "все", "крейдовий", 2</v>
-      </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(33, "Авімім", 15, "все", "крейдовий", 2),</v>
-      </c>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
+      <c r="B93" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>32, "Авімім", 15, "все", "крейдовий", 2</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(32, "Авімім", 15, "все", "крейдовий", 2),</v>
+      </c>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B94" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>34, "Дейнохейрус", 7000, "все", "крейдовий", 2</v>
-      </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(34, "Дейнохейрус", 7000, "все", "крейдовий", 2),</v>
-      </c>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="25"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="25"/>
+      <c r="B94" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>33, "Дейнохейрус", 7000, "все", "крейдовий", 2</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(33, "Дейнохейрус", 7000, "все", "крейдовий", 2),</v>
+      </c>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B95" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>35, "Велоцираптор", 20, "м'ясо", "крейдовий", 2</v>
-      </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(35, "Велоцираптор", 20, "м'ясо", "крейдовий", 2),</v>
-      </c>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="25"/>
-      <c r="L95" s="25"/>
-      <c r="M95" s="25"/>
-      <c r="N95" s="25"/>
-      <c r="O95" s="25"/>
+      <c r="B95" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>34, "Велоцираптор", 20, "м'ясо", "крейдовий", 2</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(34, "Велоцираптор", 20, "м'ясо", "крейдовий", 2),</v>
+      </c>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B96" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>36, "Гігантораптор", 1400, "все", "крейдовий", 2</v>
-      </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(36, "Гігантораптор", 1400, "все", "крейдовий", 2),</v>
-      </c>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25"/>
-      <c r="K96" s="25"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="25"/>
-      <c r="N96" s="25"/>
-      <c r="O96" s="25"/>
+      <c r="B96" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>35, "Гігантораптор", 1400, "все", "крейдовий", 2</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(35, "Гігантораптор", 1400, "все", "крейдовий", 2),</v>
+      </c>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>37, "Дейноних", 80, "м'ясо", "крейдовий", 2</v>
-      </c>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(37, "Дейноних", 80, "м'ясо", "крейдовий", 2),</v>
-      </c>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
-      <c r="M97" s="25"/>
-      <c r="N97" s="25"/>
-      <c r="O97" s="25"/>
+      <c r="B97" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>36, "Дейноних", 80, "м'ясо", "крейдовий", 2</v>
+      </c>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(36, "Дейноних", 80, "м'ясо", "крейдовий", 2),</v>
+      </c>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>38, "Дромеозавр", 15, "м'ясо", "крейдовий", 2</v>
-      </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(38, "Дромеозавр", 15, "м'ясо", "крейдовий", 2),</v>
-      </c>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25"/>
-      <c r="L98" s="25"/>
-      <c r="M98" s="25"/>
-      <c r="N98" s="25"/>
-      <c r="O98" s="25"/>
+      <c r="B98" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>37, "Дромеозавр", 15, "м'ясо", "крейдовий", 2</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(37, "Дромеозавр", 15, "м'ясо", "крейдовий", 2),</v>
+      </c>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B99" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>39, "Мікрораптор", 1, "все", "крейдовий", 3</v>
-      </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(39, "Мікрораптор", 1, "все", "крейдовий", 3),</v>
-      </c>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="25"/>
-      <c r="N99" s="25"/>
-      <c r="O99" s="25"/>
+      <c r="B99" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>38, "Мікрораптор", 1, "все", "крейдовий", 3</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(38, "Мікрораптор", 1, "все", "крейдовий", 3),</v>
+      </c>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B100" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>40, "Овіраптор", 30, "все", "крейдовий", 2</v>
-      </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(40, "Овіраптор", 30, "все", "крейдовий", 2),</v>
-      </c>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="25"/>
-      <c r="O100" s="25"/>
+      <c r="B100" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>39, "Овіраптор", 30, "все", "крейдовий", 2</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(39, "Овіраптор", 30, "все", "крейдовий", 2),</v>
+      </c>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>41, "Троодон", 50, "м'ясо", "крейдовий", 2</v>
-      </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(41, "Троодон", 50, "м'ясо", "крейдовий", 2),</v>
-      </c>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="25"/>
-      <c r="L101" s="25"/>
-      <c r="M101" s="25"/>
-      <c r="N101" s="25"/>
-      <c r="O101" s="25"/>
+      <c r="B101" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>40, "Троодон", 50, "м'ясо", "крейдовий", 2</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(40, "Троодон", 50, "м'ясо", "крейдовий", 2),</v>
+      </c>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B102" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>42, "Дилофозавр", 400, "м'ясо", "юрський", 5</v>
-      </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(42, "Дилофозавр", 400, "м'ясо", "юрський", 5),</v>
-      </c>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="25"/>
-      <c r="O102" s="25"/>
+      <c r="B102" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>41, "Дилофозавр", 400, "м'ясо", "юрський", 5</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(41, "Дилофозавр", 400, "м'ясо", "юрський", 5),</v>
+      </c>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B103" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>43, "Мегалозавр", 1000, "м'ясо", "юрський", 1</v>
-      </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(43, "Мегалозавр", 1000, "м'ясо", "юрський", 1),</v>
-      </c>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="25"/>
-      <c r="O103" s="25"/>
+      <c r="B103" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>42, "Мегалозавр", 1000, "м'ясо", "юрський", 1</v>
+      </c>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(42, "Мегалозавр", 1000, "м'ясо", "юрський", 1),</v>
+      </c>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="24"/>
+      <c r="O103" s="24"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B104" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>44, "Ерлікозавр", 300, "все", "крейдовий", 8</v>
-      </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(44, "Ерлікозавр", 300, "все", "крейдовий", 8),</v>
-      </c>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25"/>
-      <c r="N104" s="25"/>
-      <c r="O104" s="25"/>
+      <c r="B104" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>43, "Ерлікозавр", 300, "все", "крейдовий", 8</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(43, "Ерлікозавр", 300, "все", "крейдовий", 8),</v>
+      </c>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="24"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>45, "Наншіунгозавр", 600, "все", "крейдовий", 6</v>
-      </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(45, "Наншіунгозавр", 600, "все", "крейдовий", 6),</v>
-      </c>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="25"/>
-      <c r="N105" s="25"/>
-      <c r="O105" s="25"/>
+      <c r="B105" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>44, "Наншіунгозавр", 600, "все", "крейдовий", 6</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(44, "Наншіунгозавр", 600, "все", "крейдовий", 6),</v>
+      </c>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="24"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B106" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>46, "Тиранозавр", 12000, "м'ясо", "крейдовий", 1</v>
-      </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(46, "Тиранозавр", 12000, "м'ясо", "крейдовий", 1),</v>
-      </c>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="25"/>
-      <c r="M106" s="25"/>
-      <c r="N106" s="25"/>
-      <c r="O106" s="25"/>
+      <c r="B106" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>45, "Тиранозавр", 12000, "м'ясо", "крейдовий", 1</v>
+      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(45, "Тиранозавр", 12000, "м'ясо", "крейдовий", 1),</v>
+      </c>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="24"/>
+      <c r="O106" s="24"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>47, "Дасплетозавр", 2500, "м'ясо", "крейдовий", 1</v>
-      </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(47, "Дасплетозавр", 2500, "м'ясо", "крейдовий", 1),</v>
-      </c>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="25"/>
-      <c r="N107" s="25"/>
-      <c r="O107" s="25"/>
+      <c r="B107" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>46, "Дасплетозавр", 2500, "м'ясо", "крейдовий", 1</v>
+      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(46, "Дасплетозавр", 2500, "м'ясо", "крейдовий", 1),</v>
+      </c>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="24"/>
+      <c r="O107" s="24"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B108" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>48, "Анхіцератопс", 1200, "вег", "крейдовий", 4</v>
-      </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(48, "Анхіцератопс", 1200, "вег", "крейдовий", 4),</v>
-      </c>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="25"/>
-      <c r="O108" s="25"/>
+      <c r="B108" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>47, "Анхіцератопс", 1200, "вег", "крейдовий", 4</v>
+      </c>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(47, "Анхіцератопс", 1200, "вег", "крейдовий", 4),</v>
+      </c>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="24"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B109" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>49, "Протоцератопси", 180, "вег", "крейдовий", 4</v>
-      </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(49, "Протоцератопси", 180, "вег", "крейдовий", 4),</v>
-      </c>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="25"/>
-      <c r="N109" s="25"/>
-      <c r="O109" s="25"/>
+      <c r="B109" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>48, "Протоцератопси", 180, "вег", "крейдовий", 4</v>
+      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(48, "Протоцератопси", 180, "вег", "крейдовий", 4),</v>
+      </c>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B110" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>50, "Стиракозавр", 2700, "вег", "крейдовий", 4</v>
-      </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25" t="str">
-        <f t="shared" si="1"/>
-        <v>(50, "Стиракозавр", 2700, "вег", "крейдовий", 4),</v>
-      </c>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="25"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="25"/>
-      <c r="N110" s="25"/>
-      <c r="O110" s="25"/>
+      <c r="B110" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>49, "Стиракозавр", 2700, "вег", "крейдовий", 4</v>
+      </c>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>(49, "Стиракозавр", 2700, "вег", "крейдовий", 4),</v>
+      </c>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="24"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="25" t="str">
-        <f t="shared" ref="B62:B111" si="2">""""&amp;B52&amp;""", "&amp;C52&amp;", """&amp;D52&amp;""", """&amp;E52&amp;""", "&amp;F52</f>
+      <c r="B111" s="24" t="str">
+        <f t="shared" ref="B111" si="2">""""&amp;B52&amp;""", "&amp;C52&amp;", """&amp;D52&amp;""", """&amp;E52&amp;""", "&amp;F52</f>
         <v xml:space="preserve">"", , "", "", </v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="H62:O62"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:O64"/>
+    <mergeCell ref="H65:O65"/>
+    <mergeCell ref="H66:O66"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="H71:O71"/>
+    <mergeCell ref="H72:O72"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H90:O90"/>
+    <mergeCell ref="H91:O91"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="H82:O82"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="H84:O84"/>
+    <mergeCell ref="H85:O85"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="H79:O79"/>
     <mergeCell ref="H110:O110"/>
     <mergeCell ref="P61:AY61"/>
     <mergeCell ref="H104:O104"/>
@@ -3599,84 +3686,6 @@
     <mergeCell ref="H87:O87"/>
     <mergeCell ref="H88:O88"/>
     <mergeCell ref="H89:O89"/>
-    <mergeCell ref="H90:O90"/>
-    <mergeCell ref="H91:O91"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="H82:O82"/>
-    <mergeCell ref="H83:O83"/>
-    <mergeCell ref="H84:O84"/>
-    <mergeCell ref="H85:O85"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="H75:O75"/>
-    <mergeCell ref="H76:O76"/>
-    <mergeCell ref="H77:O77"/>
-    <mergeCell ref="H78:O78"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="H71:O71"/>
-    <mergeCell ref="H72:O72"/>
-    <mergeCell ref="H73:O73"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="H61:O61"/>
-    <mergeCell ref="H62:O62"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="H64:O64"/>
-    <mergeCell ref="H65:O65"/>
-    <mergeCell ref="H66:O66"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D51">
     <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="вег">
